--- a/docs/assets/disciplinas/LOB1218.xlsx
+++ b/docs/assets/disciplinas/LOB1218.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -88,25 +88,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>O rio em Regime Natural. Barragens e Reservatórios. Usos da água demandados para o interesse humano e Panorama Geral da Engenharia dos Recursos Hídricos. Impactos Ambientais dos Usos da Água. Gestão dos Recursos Hídricos. Hidroeconomia.</t>
+    <t>Barragens e Reservatórios. Usos da água demandados para o interesse humano e Panorama Geral da Engenharia dos Recursos Hídricos. Impactos Ambientais dos Usos da Água. Gestão dos Recursos Hídricos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>The river in its Natural Discharge. Barrages and Water Tanks. The use of the water demanded for the human interest and Hydric Resources Engineering General View. The Usage of the Water Enviropnmetal Impacts. Hydric Resources Management. Hydroeconomy.</t>
+    <t>Barrages and Water Tanks. The use of the water demanded for the human interest and Hydric Resources Engineering General View. The Usage of the Water Enviropnmetal Impacts. Hydric Resources Management.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>O rio em seu estado natural. Barragens e Reservatórios. Abastecimento Humano. Águas para Agropecuária e Industria. Hidreletricidade. Navegação Interior. Águas Subterrâneas. Gerenciamento dos Recursos Hídricos. Hidroeconomia.</t>
+    <t>- Políticas Públicas, Balanço Hídrico,- Demanda de água e disponibilidade dos recursos hídricos: Abastecimento Humano, águas para Agropecuária e indústria. - Hidreletricidade. - Barragens e Reservatórios,- Navegação Interior.- Águas Subterrâneas.- Gerenciamento dos Recursos Hídricos.- Hidroeconomia- Relação entre saneamento e qualidade da água</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>The river in its natural state. Barrages and Water Tanks. Human Supplying. Water for Agricultural and Industry. Hydroelectricity. Interior Navigation. Subterranean Water. Hydric Resources Management. letricidade. Hydroeconomy.</t>
+    <t>- Public Policies, Water Balance,- Water demand and availability of water resources: Human Supply, water for Agriculture and industry.- Hydroelectricity.- Dams and Reservoirs,- Inland navigation.- Groundwater.- Water Resources Management.- Hydroeconomics- Relationship between sanitation and water quality</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -115,13 +115,13 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios, trabalhos práticos e relatórios.</t>
+    <t>Avaliação baseada em trabalhos com dados reais, exercícios, trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios, trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas aos exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>

--- a/docs/assets/disciplinas/LOB1218.xlsx
+++ b/docs/assets/disciplinas/LOB1218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Mostrar ao aluno o rio no seu funcionamento natural e a intervenção antrópica visando o uso da água. Mostrar ao aluno os usos dos recursos hídricos, suas demandas e suas limitações. Desenvolver junto ao aluno os procedimentos quantitativos relativos ás técnicas de formação de reservatórios e da implantação dos diversos usos da água, consumptivos ou não, apontando decorrentes impactos socioeconômicos e ambientais.</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>7455355 - Robson da Silva Rocha</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Barragens e Reservatórios. Usos da água demandados para o interesse humano e Panorama Geral da Engenharia dos Recursos Hídricos. Impactos Ambientais dos Usos da Água. Gestão dos Recursos Hídricos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Políticas Públicas, Balanço Hídrico,- Demanda de água e disponibilidade dos recursos hídricos: Abastecimento Humano, águas para Agropecuária e indústria. - Hidreletricidade. - Barragens e Reservatórios,- Navegação Interior.- Águas Subterrâneas.- Gerenciamento dos Recursos Hídricos.- Hidroeconomia- Relação entre saneamento e qualidade da água</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Avaliação baseada em trabalhos com dados reais, exercícios, trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas aos exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>REBOUÇAS, A. C. et alli, Águas Doces do Brasil  Capital Ecológico, Usos e Conservação, 2a. ed. Escrituras Editora, São Paulo, 2002.GARCEZ, L. N. e ALVAREZ, G. A.  Hidrologia, Editora Edgard Blücher, ISBN 8521201699, 304 pgs, 2004.TUCCI, C.E.M. (organizador) - Hidrologia, Ciência e Aplicação, Coleção ABRH de Recursos Hídricos, vol. 4, EDUSP/ABRH, 1993: 943 p.VILLELA, S.M. &amp; MATTOS, A. - Hidrologia Aplicada, McGraw-Hill do Brasil, 1975: 245 p.LINSLEY, R.K.; FRANZINI, J.B. - Engenharia de Recursos Hídricos, McGraw-Hill do Brasil, EDUSP, 1978: 793 p.DAKER, A. Hidráulica aplicada à agricultura. Livraria Freitas Bastos S.A., 1983, v.1.MOTA, S. (1995). Preservação e Conservação de Recursos Hídricos. ABES. sq. edição.FEITOSA, F. A. C. e MANOEL FILHO, J. - "Hidrogeologia - Conceitos e Aplicações, CPRM, Fortaleza, 391 p., 2000.SCHREIBER, G,.P. - Usinas Hidrelétricas - Editora Edgard Blucher, São Paulo.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1218.xlsx
+++ b/docs/assets/disciplinas/LOB1218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Mostrar ao aluno o rio no seu funcionamento natural e a intervenção antrópica visando o uso da água. Mostrar ao aluno os usos dos recursos hídricos, suas demandas e suas limitações. Desenvolver junto ao aluno os procedimentos quantitativos relativos ás técnicas de formação de reservatórios e da implantação dos diversos usos da água, consumptivos ou não, apontando decorrentes impactos socioeconômicos e ambientais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Show the student the river in its natural functioning and the man-made intervention aiming at the usage of of the water. Show the student the usage of the hydric resources, their demands and limitations.Develop along with the student  the relative quantitative procedures due to the formation techniques o water tanks and the implementation of the several usages of the water, consumptive or not, pointing current socioeconomic and environmental impacts.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Show the student the river in its natural functioning and the man-made intervention aiming at the usage of of the water. Show the student the usage of the hydric resources, their demands and limitations.Develop along with the student  the relative quantitative procedures due to the formation techniques o water tanks and the implementation of the several usages of the water, consumptive or not, pointing current socioeconomic and environmental impacts.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Barragens e Reservatórios. Usos da água demandados para o interesse humano e Panorama Geral da Engenharia dos Recursos Hídricos. Impactos Ambientais dos Usos da Água. Gestão dos Recursos Hídricos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Políticas Públicas, Balanço Hídrico,- Demanda de água e disponibilidade dos recursos hídricos: Abastecimento Humano, águas para Agropecuária e indústria. - Hidreletricidade. - Barragens e Reservatórios,- Navegação Interior.- Águas Subterrâneas.- Gerenciamento dos Recursos Hídricos.- Hidroeconomia- Relação entre saneamento e qualidade da água</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Avaliação baseada em trabalhos com dados reais, exercícios, trabalhos práticos e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliação baseada em trabalhos com dados reais, exercícios, trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas aos exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas aos exercícios e trabalhos práticos e relatórios.</t>
+    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
+    <t>REBOUÇAS, A. C. et alli, Águas Doces do Brasil  Capital Ecológico, Usos e Conservação, 2a. ed. Escrituras Editora, São Paulo, 2002.GARCEZ, L. N. e ALVAREZ, G. A.  Hidrologia, Editora Edgard Blücher, ISBN 8521201699, 304 pgs, 2004.TUCCI, C.E.M. (organizador) - Hidrologia, Ciência e Aplicação, Coleção ABRH de Recursos Hídricos, vol. 4, EDUSP/ABRH, 1993: 943 p.VILLELA, S.M. &amp; MATTOS, A. - Hidrologia Aplicada, McGraw-Hill do Brasil, 1975: 245 p.LINSLEY, R.K.; FRANZINI, J.B. - Engenharia de Recursos Hídricos, McGraw-Hill do Brasil, EDUSP, 1978: 793 p.DAKER, A. Hidráulica aplicada à agricultura. Livraria Freitas Bastos S.A., 1983, v.1.MOTA, S. (1995). Preservação e Conservação de Recursos Hídricos. ABES. sq. edição.FEITOSA, F. A. C. e MANOEL FILHO, J. - "Hidrogeologia - Conceitos e Aplicações, CPRM, Fortaleza, 391 p., 2000.SCHREIBER, G,.P. - Usinas Hidrelétricas - Editora Edgard Blucher, São Paulo.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
